--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H2">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I2">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J2">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.15127465436635</v>
+        <v>5.399171333333334</v>
       </c>
       <c r="N2">
-        <v>5.15127465436635</v>
+        <v>16.197514</v>
       </c>
       <c r="O2">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569684</v>
       </c>
       <c r="P2">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569683</v>
       </c>
       <c r="Q2">
-        <v>4.47430564096079</v>
+        <v>6.229405508707556</v>
       </c>
       <c r="R2">
-        <v>4.47430564096079</v>
+        <v>56.064649578368</v>
       </c>
       <c r="S2">
-        <v>0.0191074784761958</v>
+        <v>0.02359084221068802</v>
       </c>
       <c r="T2">
-        <v>0.0191074784761958</v>
+        <v>0.02359084221068801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H3">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I3">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J3">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.34603729675398</v>
+        <v>3.704475666666667</v>
       </c>
       <c r="N3">
-        <v>3.34603729675398</v>
+        <v>11.113427</v>
       </c>
       <c r="O3">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="P3">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="Q3">
-        <v>2.906308546185081</v>
+        <v>4.274115359580444</v>
       </c>
       <c r="R3">
-        <v>2.906308546185081</v>
+        <v>38.46703823622399</v>
       </c>
       <c r="S3">
-        <v>0.0124113622196562</v>
+        <v>0.01618613219145851</v>
       </c>
       <c r="T3">
-        <v>0.0124113622196562</v>
+        <v>0.0161861321914585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H4">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I4">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J4">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.98409819364594</v>
+        <v>6.371866333333333</v>
       </c>
       <c r="N4">
-        <v>5.98409819364594</v>
+        <v>19.115599</v>
       </c>
       <c r="O4">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="P4">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="Q4">
-        <v>5.197681370221329</v>
+        <v>7.351672467320888</v>
       </c>
       <c r="R4">
-        <v>5.197681370221329</v>
+        <v>66.16505220588799</v>
       </c>
       <c r="S4">
-        <v>0.02219664745260935</v>
+        <v>0.02784088223487787</v>
       </c>
       <c r="T4">
-        <v>0.02219664745260935</v>
+        <v>0.02784088223487786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H5">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I5">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J5">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.7989233487226</v>
+        <v>13.51475866666667</v>
       </c>
       <c r="N5">
-        <v>12.7989233487226</v>
+        <v>40.544276</v>
       </c>
       <c r="O5">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="P5">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="Q5">
-        <v>11.11691741943403</v>
+        <v>15.59293211667911</v>
       </c>
       <c r="R5">
-        <v>11.11691741943403</v>
+        <v>140.336389050112</v>
       </c>
       <c r="S5">
-        <v>0.04747468710426959</v>
+        <v>0.05905064305933521</v>
       </c>
       <c r="T5">
-        <v>0.04747468710426959</v>
+        <v>0.05905064305933519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H6">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I6">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J6">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.628380100635956</v>
+        <v>0.6319533333333333</v>
       </c>
       <c r="N6">
-        <v>0.628380100635956</v>
+        <v>1.89586</v>
       </c>
       <c r="O6">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="P6">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="Q6">
-        <v>0.5457997908459051</v>
+        <v>0.729129218702222</v>
       </c>
       <c r="R6">
-        <v>0.5457997908459051</v>
+        <v>6.562162968319998</v>
       </c>
       <c r="S6">
-        <v>0.002330832668297748</v>
+        <v>0.002761222130356237</v>
       </c>
       <c r="T6">
-        <v>0.002330832668297748</v>
+        <v>0.002761222130356236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H7">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I7">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J7">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.15127465436635</v>
+        <v>5.399171333333334</v>
       </c>
       <c r="N7">
-        <v>5.15127465436635</v>
+        <v>16.197514</v>
       </c>
       <c r="O7">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569684</v>
       </c>
       <c r="P7">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569683</v>
       </c>
       <c r="Q7">
-        <v>2.551877555652802</v>
+        <v>3.028648961919334</v>
       </c>
       <c r="R7">
-        <v>2.551877555652802</v>
+        <v>27.257840657274</v>
       </c>
       <c r="S7">
-        <v>0.01089776814130485</v>
+        <v>0.01146953423923542</v>
       </c>
       <c r="T7">
-        <v>0.01089776814130485</v>
+        <v>0.01146953423923542</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H8">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I8">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J8">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.34603729675398</v>
+        <v>3.704475666666667</v>
       </c>
       <c r="N8">
-        <v>3.34603729675398</v>
+        <v>11.113427</v>
       </c>
       <c r="O8">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="P8">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="Q8">
-        <v>1.657585364959342</v>
+        <v>2.078014511789667</v>
       </c>
       <c r="R8">
-        <v>1.657585364959342</v>
+        <v>18.702130606107</v>
       </c>
       <c r="S8">
-        <v>0.007078702088089058</v>
+        <v>0.007869468826620147</v>
       </c>
       <c r="T8">
-        <v>0.007078702088089058</v>
+        <v>0.007869468826620143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H9">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I9">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J9">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.98409819364594</v>
+        <v>6.371866333333333</v>
       </c>
       <c r="N9">
-        <v>5.98409819364594</v>
+        <v>19.115599</v>
       </c>
       <c r="O9">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="P9">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="Q9">
-        <v>2.964448004775619</v>
+        <v>3.574279304084333</v>
       </c>
       <c r="R9">
-        <v>2.964448004775619</v>
+        <v>32.168513736759</v>
       </c>
       <c r="S9">
-        <v>0.01265964620890058</v>
+        <v>0.01353584366304572</v>
       </c>
       <c r="T9">
-        <v>0.01265964620890058</v>
+        <v>0.01353584366304572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H10">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I10">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J10">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.7989233487226</v>
+        <v>13.51475866666667</v>
       </c>
       <c r="N10">
-        <v>12.7989233487226</v>
+        <v>40.544276</v>
       </c>
       <c r="O10">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="P10">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="Q10">
-        <v>6.340427840018444</v>
+        <v>7.581063329790665</v>
       </c>
       <c r="R10">
-        <v>6.340427840018444</v>
+        <v>68.229569968116</v>
       </c>
       <c r="S10">
-        <v>0.02707673507458691</v>
+        <v>0.02870958850765685</v>
       </c>
       <c r="T10">
-        <v>0.02707673507458691</v>
+        <v>0.02870958850765684</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H11">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I11">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J11">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.628380100635956</v>
+        <v>0.6319533333333333</v>
       </c>
       <c r="N11">
-        <v>0.628380100635956</v>
+        <v>1.89586</v>
       </c>
       <c r="O11">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="P11">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="Q11">
-        <v>0.3112917059998997</v>
+        <v>0.3544923264733333</v>
       </c>
       <c r="R11">
-        <v>0.3112917059998997</v>
+        <v>3.19043093826</v>
       </c>
       <c r="S11">
-        <v>0.001329368185704478</v>
+        <v>0.001342467194829828</v>
       </c>
       <c r="T11">
-        <v>0.001329368185704478</v>
+        <v>0.001342467194829827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H12">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I12">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J12">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.15127465436635</v>
+        <v>5.399171333333334</v>
       </c>
       <c r="N12">
-        <v>5.15127465436635</v>
+        <v>16.197514</v>
       </c>
       <c r="O12">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569684</v>
       </c>
       <c r="P12">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569683</v>
       </c>
       <c r="Q12">
-        <v>19.50788848819229</v>
+        <v>20.71972133006912</v>
       </c>
       <c r="R12">
-        <v>19.50788848819229</v>
+        <v>186.477491970622</v>
       </c>
       <c r="S12">
-        <v>0.08330824698066903</v>
+        <v>0.07846586257129057</v>
       </c>
       <c r="T12">
-        <v>0.08330824698066903</v>
+        <v>0.07846586257129053</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H13">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I13">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J13">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.34603729675398</v>
+        <v>3.704475666666667</v>
       </c>
       <c r="N13">
-        <v>3.34603729675398</v>
+        <v>11.113427</v>
       </c>
       <c r="O13">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="P13">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="Q13">
-        <v>12.67145062961863</v>
+        <v>14.21620073685789</v>
       </c>
       <c r="R13">
-        <v>12.67145062961863</v>
+        <v>127.945806631721</v>
       </c>
       <c r="S13">
-        <v>0.0541133059733542</v>
+        <v>0.05383694285913689</v>
       </c>
       <c r="T13">
-        <v>0.0541133059733542</v>
+        <v>0.05383694285913686</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H14">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I14">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J14">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.98409819364594</v>
+        <v>6.371866333333333</v>
       </c>
       <c r="N14">
-        <v>5.98409819364594</v>
+        <v>19.115599</v>
       </c>
       <c r="O14">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="P14">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="Q14">
-        <v>22.66179307001007</v>
+        <v>24.45251069623078</v>
       </c>
       <c r="R14">
-        <v>22.66179307001007</v>
+        <v>220.072596266077</v>
       </c>
       <c r="S14">
-        <v>0.09677696564873883</v>
+        <v>0.09260198596537092</v>
       </c>
       <c r="T14">
-        <v>0.09677696564873883</v>
+        <v>0.09260198596537088</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H15">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I15">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J15">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.7989233487226</v>
+        <v>13.51475866666667</v>
       </c>
       <c r="N15">
-        <v>12.7989233487226</v>
+        <v>40.544276</v>
       </c>
       <c r="O15">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="P15">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="Q15">
-        <v>48.4695509768958</v>
+        <v>51.86389098039422</v>
       </c>
       <c r="R15">
-        <v>48.4695509768958</v>
+        <v>466.775018823548</v>
       </c>
       <c r="S15">
-        <v>0.2069887433624314</v>
+        <v>0.196409250744804</v>
       </c>
       <c r="T15">
-        <v>0.2069887433624314</v>
+        <v>0.1964092507448039</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H16">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I16">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J16">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.628380100635956</v>
+        <v>0.6319533333333333</v>
       </c>
       <c r="N16">
-        <v>0.628380100635956</v>
+        <v>1.89586</v>
       </c>
       <c r="O16">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="P16">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="Q16">
-        <v>2.379676828338938</v>
+        <v>2.425167891864445</v>
       </c>
       <c r="R16">
-        <v>2.379676828338938</v>
+        <v>21.82651102678</v>
       </c>
       <c r="S16">
-        <v>0.01016238661961954</v>
+        <v>0.009184143333008193</v>
       </c>
       <c r="T16">
-        <v>0.01016238661961954</v>
+        <v>0.009184143333008191</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H17">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I17">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J17">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.15127465436635</v>
+        <v>5.399171333333334</v>
       </c>
       <c r="N17">
-        <v>5.15127465436635</v>
+        <v>16.197514</v>
       </c>
       <c r="O17">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569684</v>
       </c>
       <c r="P17">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569683</v>
       </c>
       <c r="Q17">
-        <v>15.85857175910468</v>
+        <v>17.16498431232489</v>
       </c>
       <c r="R17">
-        <v>15.85857175910468</v>
+        <v>154.484858810924</v>
       </c>
       <c r="S17">
-        <v>0.06772387558334771</v>
+        <v>0.06500402580871729</v>
       </c>
       <c r="T17">
-        <v>0.06772387558334771</v>
+        <v>0.06500402580871728</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H18">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I18">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J18">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.34603729675398</v>
+        <v>3.704475666666667</v>
       </c>
       <c r="N18">
-        <v>3.34603729675398</v>
+        <v>11.113427</v>
       </c>
       <c r="O18">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="P18">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="Q18">
-        <v>10.30101793043316</v>
+        <v>11.77722705540911</v>
       </c>
       <c r="R18">
-        <v>10.30101793043316</v>
+        <v>105.995043498682</v>
       </c>
       <c r="S18">
-        <v>0.04399039631686696</v>
+        <v>0.04460051681580861</v>
       </c>
       <c r="T18">
-        <v>0.04399039631686696</v>
+        <v>0.0446005168158086</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H19">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I19">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J19">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.98409819364594</v>
+        <v>6.371866333333333</v>
       </c>
       <c r="N19">
-        <v>5.98409819364594</v>
+        <v>19.115599</v>
       </c>
       <c r="O19">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="P19">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="Q19">
-        <v>18.42247928617509</v>
+        <v>20.25736523244822</v>
       </c>
       <c r="R19">
-        <v>18.42247928617509</v>
+        <v>182.316287092034</v>
       </c>
       <c r="S19">
-        <v>0.07867301759992537</v>
+        <v>0.07671491382844864</v>
       </c>
       <c r="T19">
-        <v>0.07867301759992537</v>
+        <v>0.07671491382844861</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H20">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I20">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J20">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.7989233487226</v>
+        <v>13.51475866666667</v>
       </c>
       <c r="N20">
-        <v>12.7989233487226</v>
+        <v>40.544276</v>
       </c>
       <c r="O20">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="P20">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="Q20">
-        <v>39.40241163280878</v>
+        <v>42.96596758580177</v>
       </c>
       <c r="R20">
-        <v>39.40241163280878</v>
+        <v>386.693708272216</v>
       </c>
       <c r="S20">
-        <v>0.1682676134798943</v>
+        <v>0.1627126955099256</v>
       </c>
       <c r="T20">
-        <v>0.1682676134798943</v>
+        <v>0.1627126955099255</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H21">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I21">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J21">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.628380100635956</v>
+        <v>0.6319533333333333</v>
       </c>
       <c r="N21">
-        <v>0.628380100635956</v>
+        <v>1.89586</v>
       </c>
       <c r="O21">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="P21">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="Q21">
-        <v>1.934513608099301</v>
+        <v>2.009098875195555</v>
       </c>
       <c r="R21">
-        <v>1.934513608099301</v>
+        <v>18.08188987676</v>
       </c>
       <c r="S21">
-        <v>0.008261321441761831</v>
+        <v>0.007608484386537016</v>
       </c>
       <c r="T21">
-        <v>0.008261321441761831</v>
+        <v>0.007608484386537015</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H22">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I22">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J22">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.15127465436635</v>
+        <v>5.399171333333334</v>
       </c>
       <c r="N22">
-        <v>5.15127465436635</v>
+        <v>16.197514</v>
       </c>
       <c r="O22">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569684</v>
       </c>
       <c r="P22">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569683</v>
       </c>
       <c r="Q22">
-        <v>0.8285899155446276</v>
+        <v>0.9868767338206669</v>
       </c>
       <c r="R22">
-        <v>0.8285899155446276</v>
+        <v>8.881890604386001</v>
       </c>
       <c r="S22">
-        <v>0.003538485129831705</v>
+        <v>0.003737315427037079</v>
       </c>
       <c r="T22">
-        <v>0.003538485129831705</v>
+        <v>0.003737315427037078</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H23">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I23">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J23">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.34603729675398</v>
+        <v>3.704475666666667</v>
       </c>
       <c r="N23">
-        <v>3.34603729675398</v>
+        <v>11.113427</v>
       </c>
       <c r="O23">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="P23">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="Q23">
-        <v>0.5382148977004205</v>
+        <v>0.6771151757803333</v>
       </c>
       <c r="R23">
-        <v>0.5382148977004205</v>
+        <v>6.094036582023</v>
       </c>
       <c r="S23">
-        <v>0.002298441456308379</v>
+        <v>0.002564244252195145</v>
       </c>
       <c r="T23">
-        <v>0.002298441456308379</v>
+        <v>0.002564244252195144</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H24">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I24">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J24">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.98409819364594</v>
+        <v>6.371866333333333</v>
       </c>
       <c r="N24">
-        <v>5.98409819364594</v>
+        <v>19.115599</v>
       </c>
       <c r="O24">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="P24">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="Q24">
-        <v>0.9625507761813891</v>
+        <v>1.164668844005667</v>
       </c>
       <c r="R24">
-        <v>0.9625507761813891</v>
+        <v>10.482019596051</v>
       </c>
       <c r="S24">
-        <v>0.004110563674899525</v>
+        <v>0.004410616532867609</v>
       </c>
       <c r="T24">
-        <v>0.004110563674899525</v>
+        <v>0.004410616532867607</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H25">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I25">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J25">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.7989233487226</v>
+        <v>13.51475866666667</v>
       </c>
       <c r="N25">
-        <v>12.7989233487226</v>
+        <v>40.544276</v>
       </c>
       <c r="O25">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="P25">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="Q25">
-        <v>2.058725175445868</v>
+        <v>2.470268133369333</v>
       </c>
       <c r="R25">
-        <v>2.058725175445868</v>
+        <v>22.232413200324</v>
       </c>
       <c r="S25">
-        <v>0.008791765725192463</v>
+        <v>0.009354938552474728</v>
       </c>
       <c r="T25">
-        <v>0.008791765725192463</v>
+        <v>0.009354938552474726</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H26">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I26">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J26">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.628380100635956</v>
+        <v>0.6319533333333333</v>
       </c>
       <c r="N26">
-        <v>0.628380100635956</v>
+        <v>1.89586</v>
       </c>
       <c r="O26">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="P26">
-        <v>0.02251555230292803</v>
+        <v>0.02133375619900535</v>
       </c>
       <c r="Q26">
-        <v>0.1010758403407084</v>
+        <v>0.1155103261266667</v>
       </c>
       <c r="R26">
-        <v>0.1010758403407084</v>
+        <v>1.03959293514</v>
       </c>
       <c r="S26">
-        <v>0.0004316433875444351</v>
+        <v>0.0004374391542740765</v>
       </c>
       <c r="T26">
-        <v>0.0004316433875444351</v>
+        <v>0.0004374391542740764</v>
       </c>
     </row>
   </sheetData>
